--- a/output4.xlsx
+++ b/output4.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_files\ZH--Create-question-bank\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E189D6FA-EFD1-43B6-90AB-D46093128A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Phần sức khỏe bệnh lý" sheetId="1" r:id="rId1"/>
     <sheet name="Phần thông tin sản phẩm" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="212">
   <si>
     <t>number</t>
   </si>
@@ -558,12 +552,512 @@
   <si>
     <t>Khó</t>
   </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Sữa non trong sản phẩm Diasure tiểu đường được nhập khẩu từ quốc gia nào?
+A. Việt Nam
+B. New Zealand
+C. Hoa Kỳ (Mỹ)
+D. Úc</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Hoạt chất nào trong sữa Diasure tiểu đường có tác dụng tăng độ nhạy của cơ thể với Insulin và cải thiện triệu chứng lo âu?
+A. Crom
+B. Inositol
+C. Omega-3
+D. Taurine</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Loại đường nào được sử dụng trong sữa Diasure tiểu đường, có chỉ số GI thấp và không làm tăng đường huyết nhanh?
+A. Đường mía (Sucrose)
+B. Đường Fructose
+C. Đường Isomalt
+D. Đường Glucose</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Sữa Diasure tiểu đường bổ sung Canxi dạng nào để tăng khả năng hấp thu và giảm tác dụng phụ?
+A. Canxi Carbonate
+B. Canxi Citrate
+C. Canxi Nano
+D. Canxi Gluconate</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Thành phần Omega-3 và Omega-6 trong sữa Diasure tiểu đường có lợi ích chính là gì?
+A. Chỉ giúp xương chắc khỏe
+B. Hỗ trợ sức khỏe tim mạch, não bộ và tăng sức đề kháng
+C. Chỉ giúp kiểm soát đường huyết
+D. Chỉ cải thiện hệ tiêu hóa</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Chất xơ hòa tan (FOS) trong sữa Diasure tiểu đường có công dụng chính nào?
+A. Cung cấp năng lượng nhanh
+B. Cải thiện hệ tiêu hóa, hỗ trợ lợi khuẩn và tăng hấp thu canxi
+C. Tăng cường đông máu
+D. Giúp tăng cân</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Thức uống Diasure Veganic sử dụng nguyên liệu chính từ đâu?
+A. Sữa bò tách béo
+B. Sữa dê nguyên kem
+C. Hỗn hợp 8 loại hạt dinh dưỡng
+D. Đạm whey cô đặc</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Ngoài Isomalt, Diasure Veganic còn sử dụng loại đường nào có chỉ số đường huyết thấp, chiết xuất từ củ cải đường?
+A. D-chiro-inositol
+B. Palatinose Pst-N
+C. Crom
+D. FOS</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Hoạt chất D-chiro-inositol trong Diasure Veganic có tác dụng gì đối với người bệnh tiểu đường?
+A. Tăng đường huyết nhanh
+B. Tăng tính nhạy cảm với Insulin, hạ đường huyết
+C. Gây kháng Insulin
+D. Chỉ tốt cho người bị buồng trứng đa nang</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Sữa dê Diabetic có ưu điểm gì về hàm lượng đường so với sữa bò?
+A. Cao hơn 15%
+B. Tương đương
+C. Thấp hơn 15%, đặc biệt là đường lactose
+D. Chỉ chứa đường Isomalt</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Protein trong sữa dê có đặc điểm gì nổi bật so với sữa bò?
+A. Kích thước phân tử lớn hơn, khó tiêu hơn
+B. Kích thước phân tử nhỏ hơn, dễ tiêu hóa hơn, chứa 100% đạm quý A2
+C. Hàm lượng thấp hơn
+D. Chỉ chứa đạm thực vật</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Oligosaccharides, có nhiều trong sữa dê, có vai trò gì?
+A. Tăng cường đông máu
+B. Tăng cường chức năng miễn dịch, tăng độ nhạy insulin, hỗ trợ tiêu hóa
+C. Gây đầy bụng, khó tiêu
+D. Chỉ cung cấp năng lượng</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Chất xơ Orafti® GR (Inulin) trong sữa dê Diabetic được nhập khẩu từ đâu và có công dụng gì?
+A. Mỹ, chỉ giúp giảm cân
+B. Đức, cải thiện sức khỏe đường ruột, quản lý đường huyết, tăng hấp thu khoáng chất
+C. Việt Nam, chỉ chống táo bón
+D. New Zealand, chỉ tăng cường miễn dịch</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Nhà máy Nature Made, nơi sản xuất các sản phẩm sữa này, đạt những tiêu chuẩn chất lượng nào?
+A. Chỉ có ISO 9001
+B. Chỉ có HACCP
+C. FDA, ISO 22000:2018, HACCP, GMP
+D. Chỉ có GMP</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Theo hướng dẫn, cách pha 1 ly sữa Diasure 220ml là gì?
+A. 5 muỗng gạt ngang + 200ml nước nguội
+B. 5 muỗng đầy + 220ml nước sôi
+C. 5 muỗng gạt ngang + 200ml nước nóng (45-60 độ C)
+D. 3 muỗng gạt ngang + 200ml nước nóng (45-60 độ C)</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Sữa tiểu đường có thể thay thế hoàn toàn bữa ăn chính không theo khuyến cáo?
+A. Có, nên thay thế tất cả bữa ăn chính bằng sữa.
+B. Có thể thay thế bữa phụ hoặc bữa chính, nhưng nên ăn đủ bữa chính để đa dạng dinh dưỡng và hứng thú ăn uống.
+C. Không, chỉ được dùng làm bữa phụ.
+D. Chỉ được dùng thay bữa sáng.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Tại sao nên sử dụng sữa tiểu đường lâu dài, ngay cả khi đường huyết đã ổn định?
+A. Vì sữa có thể chữa khỏi hoàn toàn bệnh tiểu đường.
+B. Vì nếu ngừng uống, đường huyết sẽ tăng vọt ngay lập tức.
+C. Để duy trì kết quả, bổ sung dinh dưỡng thiếu hụt do ăn kiêng và ngăn ngừa bệnh nặng hơn, phòng biến chứng.
+D. Chỉ để thay đổi khẩu vị.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Khi sử dụng sữa tiểu đường cùng với thuốc điều trị khác, cần lưu ý gì?
+A. Uống sữa và thuốc cùng lúc để tăng hiệu quả.
+B. Ngừng thuốc điều trị khi bắt đầu uống sữa.
+C. Uống sữa cách thuốc điều trị khoảng 30 phút - 1 giờ.
+D. Không được dùng sữa khi đang uống thuốc.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Đối tượng nào được khuyên nên ưu tiên sử dụng Diasure Veganic hơn?
+A. Người muốn tăng cân nhanh.
+B. Người bị dị ứng lactose hoặc đạm sữa bò, người có bệnh tim mạch, mỡ máu.
+C. Chỉ dành cho người ăn chay.
+D. Trẻ em dưới 18 tuổi.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Năng lượng trong 100ml sữa Diasure Veganic là bao nhiêu?
+A. 410 Kcal
+B. 415.9 Kcal
+C. 409 Kcal
+D. 208 Kcal</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Các công dụng chính của các sản phẩm sữa tiểu đường được nêu trong cẩm nang là gì?
+A. Cung cấp dinh dưỡng thiết yếu.
+B. Hỗ trợ kiểm soát đường huyết.
+C. Giảm nguy cơ loãng xương và bệnh tim mạch.
+D. Chữa khỏi hoàn toàn bệnh tiểu đường.</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Thành phần nào trong sữa Diasure tiểu đường giúp hỗ trợ xương khớp?
+A. Inositol
+B. Canxi nano
+C. Vitamin D3
+D. Vitamin K1</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Diasure Veganic có những ưu điểm nào so với sữa có nguồn gốc động vật?
+A. Hoàn toàn thuần tự nhiên từ 8 loại hạt.
+B. Phù hợp với người dị ứng lactose, đạm sữa bò.
+C. Dễ tiêu hóa hơn, tốt cho người bụng dạ kém.
+D. Chứa nhiều cholesterol hơn.</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Các loại đường nào được sử dụng trong sữa dê Diabetic để kiểm soát đường huyết?
+A. Đường mía
+B. Isomalt
+C. Palatinose Pst-N
+D. Inositol</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Vitamin nhóm B có vai trò gì quan trọng được đề cập trong phần sữa dê Diabetic?
+A. Tham gia trao đổi chất, hoạt động hệ thần kinh.
+B. Ngăn ngừa oxy hóa, hỗ trợ sức khỏe da.
+C. Duy trì chức năng gan, bảo vệ tim mạch.
+D. Chỉ giúp tăng cân.</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Sữa non trong các sản phẩm có công dụng gì?
+A. Tăng cường miễn dịch cơ thể và đường ruột.
+B. Cung cấp kháng thể (IgG, IgA, IgM).
+C. Hỗ trợ chức năng tiêu hóa và hấp thụ dinh dưỡng.
+D. Làm tăng đường huyết.</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Những đối tượng nào KHÔNG nên hoặc cần thận trọng khi sử dụng các loại sữa tiểu đường này theo cẩm nang?
+A. Người từ 18 tuổi trở lên bị tiểu đường.
+B. Người dị ứng với thành phần của sữa.
+C. Người suy gan, suy thận nặng (độ 3, 4) hoặc chưa ổn định.
+D. Người có bệnh lý đường tiêu hóa nghiêm trọng đang điều trị tích cực (chảy máu dạ dày...).</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Các biện pháp nào có thể giúp hạn chế tình trạng táo bón khi uống sữa?
+A. Pha sữa đặc hơn hướng dẫn.
+B. Pha sữa loãng hơn một chút so với hướng dẫn.
+C. Uống thêm nhiều nước trong ngày.
+D. Ăn thêm nhiều rau xanh, hoa quả.</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Đặc điểm của các loại đường như Isomalt, Palatinose được sử dụng trong các sản phẩm này là gì?
+A. Hấp thu nhanh, gây tăng đường huyết đột ngột.
+B. Hấp thu chậm, giải phóng năng lượng từ từ.
+C. Có chỉ số đường huyết (GI) thấp.
+D. Giảm tình trạng đề kháng Insulin.</t>
+  </si>
+  <si>
+    <t>Chọn các câu trả lời đúng nhất. Diasure Veganic bổ sung các vitamin nào tốt cho thị giác và hệ miễn dịch?
+A. Vitamin B12
+B. Vitamin K1
+C. Vitamin A
+D. Vitamin C</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Sữa Diasure tiểu đường được thiết kế chuyên biệt cho người tiểu đường hoặc ______ tiểu đường.
+A. đã khỏi
+B. nguy cơ
+C. không mắc
+D. biến chứng nặng</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Vi chất ______ trong sữa Diasure tiểu đường được coi là yếu tố dung nạp glucose, phối hợp cùng insulin để đưa glucose vào tế bào.
+A. Kẽm
+B. Sắt
+C. Crom
+D. Selen</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Diasure Veganic là sản phẩm hoàn toàn ______ với sự kết hợp từ 8 loại hạt vàng dinh dưỡng.
+A. từ sữa bò
+B. từ sữa dê
+C. thuần tự nhiên
+D. tổng hợp hóa học</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Đường Palatinose Pst-N hấp thụ vào máu với tốc độ ______ hơn 4-5 lần so với các loại đường thông thường.
+A. nhanh
+B. chậm
+C. tương đương
+D. gấp đôi</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Sữa dê có hàm lượng chất khoáng như ______ và photpho cao hơn sữa bò, tốt cho xương.
+A. Sắt
+B. Kẽm
+C. Canxi
+D. Magie</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Sữa dê chứa 100% đạm quý ______, dễ tiêu hóa hơn sữa bò.
+A. A1 ß-casein
+B. A2 ß-casein
+C. Whey protein
+D. Soy protein</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Chất xơ ______ trong sữa dê Diabetic là chất xơ thế hệ mới được nghiên cứu độc quyền tại Châu Âu.
+A. FOS
+B. GOS
+C. Orafti® GR (Inulin)
+D. Pectin</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Các sản phẩm sữa tiểu đường có mức năng lượng ______ nên không gây dư thừa năng lượng, không ảnh hưởng bữa ăn chính.
+A. rất cao
+B. cao
+C. vừa phải / thấp
+D. không đáng kể</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Nhà máy Nature Made sử dụng nguồn nguyên liệu sạch, có ______ chứng minh lâm sàng đầy đủ.
+A. tin đồn
+B. quảng cáo
+C. nghiên cứu
+D. ý kiến cá nhân</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Diasure tiểu đường bổ sung ______ nhập khẩu từ Hoa Kỳ giúp tăng cường miễn dịch.
+A. Vitamin C
+B. Sữa non
+C. Kẽm
+D. Omega 3</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Một khách hàng 65 tuổi, bị tiểu đường type 2, loãng xương và thường bị đầy bụng, khó tiêu khi uống sữa bò thông thường. Khách hàng muốn tìm một sản phẩm sữa chuyên biệt vừa hỗ trợ kiểm soát đường huyết, tốt cho xương khớp lại dễ tiêu hóa. Dựa trên thông tin sản phẩm, bạn sẽ tư vấn sản phẩm nào là phù hợp nhất?
+A. Diasure tiểu đường (sữa bò) vì có canxi nano.
+B. Diasure Veganic (sữa hạt) vì hoàn toàn từ thực vật, không chứa lactose.
+C. Sữa dê Diabetic vì sữa dê dễ tiêu hóa hơn sữa bò, chứa đạm A2, hàm lượng lactose thấp hơn và có bổ sung Orafti® GR tốt cho tiêu hóa.
+D. Bất kỳ loại sữa nào cũng được, chỉ cần uống ít đi.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Khách hàng đang phân vân giữa Diasure tiểu đường và Diasure Veganic. Họ không bị dị ứng sữa bò nhưng quan tâm đến sức khỏe tim mạch và muốn giảm lượng chất béo động vật. Bạn sẽ giải thích sự khác biệt về thành phần nào để giúp họ lựa chọn?
+A. Cả hai đều giống hệt nhau, chọn loại nào cũng được.
+B. Diasure tiểu đường có Omega-3, Omega-6 tốt cho tim mạch nhưng nguồn đạm, béo từ động vật. Diasure Veganic nguồn đạm, béo từ thực vật, tốt cho người muốn hạn chế chất béo động vật và có VTM A, C.
+C. Diasure Veganic có nhiều canxi hơn Diasure tiểu đường.
+D. Diasure tiểu đường có vị ngọt hơn Diasure Veganic.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Một khách hàng đọc thành phần sữa Diasure và thấy ghi 'Đường Isomalt', họ lo lắng rằng uống sữa có đường sẽ làm tăng đường huyết. Bạn sẽ giải thích như thế nào dựa trên thông tin trong cẩm nang?
+A. "Đúng là có đường nên sẽ tăng đường huyết, bác nên uống ít thôi."
+B. "Đây là đường Isomalt chiết xuất từ củ cải đường, có chỉ số GI thấp, hấp thu chậm, không làm tăng đường huyết đột ngột như đường mía thông thường và được dùng chuyên biệt cho người tiểu đường."
+C. "Nhà sản xuất ghi nhầm thôi ạ, sữa này hoàn toàn không có đường."
+D. "Đường Isomalt chỉ tạo vị ngọt, không cung cấp năng lượng nên không ảnh hưởng đường huyết."</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Khách hàng hỏi: "Tôi uống sữa tiểu đường này được 1 tháng thấy đường huyết ổn định hơn rồi, có cần uống tiếp không hay dừng được rồi?". Bạn sẽ tư vấn thế nào?
+A. "Ổn định rồi thì bác dừng được rồi ạ, không cần uống nữa."
+B. "Bác nên dừng uống sữa và chỉ dùng thuốc thôi."
+C. "Tiểu đường là bệnh mạn tính, bác nên tiếp tục sử dụng sữa lâu dài như một phần dinh dưỡng hàng ngày để duy trì kết quả, bổ sung dưỡng chất và ngăn ngừa biến chứng."
+D. "Bác nên chuyển sang loại sữa thông thường cho rẻ."</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Một người bị béo phì và tiểu đường, lo ngại uống sữa Diasure sẽ làm tăng cân. Bạn nên tư vấn cách sử dụng sữa như thế nào cho phù hợp?
+A. Khuyên họ không nên uống sữa vì chắc chắn sẽ tăng cân.
+B. Khuyên họ uống sữa thay hoàn toàn các bữa ăn chính.
+C. Giải thích rằng sữa có năng lượng vừa phải, không gây tăng cân nếu dùng hợp lý. Có thể dùng thay bữa phụ, hoặc nếu uống thêm thì giảm bớt lượng tinh bột trong bữa chính (ví dụ giảm nửa bát cơm), đặc biệt là bữa tối.
+D. Khuyên họ pha sữa đặc hơn để nhanh no và không ăn bữa chính.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Khách hàng đang dùng thuốc điều trị huyết áp và mỡ máu, hỏi có dùng được sữa tiểu đường Diasure Veganic không? Bạn sẽ trả lời thế nào?
+A. "Không được ạ, sữa này chỉ dành cho người chỉ bị tiểu đường."
+B. "Hoàn toàn được ạ. Sữa Diasure Veganic là dinh dưỡng bổ sung, an toàn cho người có bệnh tim mạch, huyết áp, mỡ máu. Bác chỉ cần uống cách các thuốc điều trị khoảng 1-2h và tiếp tục theo dõi sức khỏe, không tự ý bỏ thuốc."
+C. "Bác phải dừng hết thuốc huyết áp, mỡ máu thì mới được uống sữa."
+D. "Sữa này có thể gây tương tác nguy hiểm với thuốc của bác, không nên dùng."</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Khách hàng phàn nàn rằng sau khi uống sữa dê Diabetic vài ngày thì bị táo bón nhẹ. Dựa vào thông tin Q&amp;A, nguyên nhân có thể là gì và cách khắc phục nào là phù hợp?
+A. Do sữa dê quá nhiều chất béo. Khắc phục: Ngừng uống sữa ngay.
+B. Có thể do pha sữa quá đặc hoặc uống ít nước, ít chất xơ. Khắc phục: Thử pha loãng hơn chút, uống đủ nước trong ngày, ăn nhiều rau xanh.
+C. Do chất xơ Orafti GR gây táo bón. Khắc phục: Chọn loại sữa không có chất xơ này.
+D. Đây là phản ứng bình thường, không cần làm gì cả.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Một khách hàng muốn mua sữa Diasure để nuôi ăn qua ống sonde cho người nhà bị tiểu đường đang nằm viện. Bạn sẽ tư vấn như thế nào dựa trên Q&amp;A?
+A. "Được ạ, sữa này rất tốt để nuôi ăn qua sonde."
+B. "Các loại sữa tiểu đường này phù hợp hơn với đường uống trực tiếp. Người ăn qua sonde cần chế độ dinh dưỡng riêng biệt với áp suất thẩm thấu phù hợp, nên tham khảo ý kiến bác sĩ hoặc chuyên gia dinh dưỡng tại bệnh viện."
+C. "Bác cứ mua về dùng thử xem sao."
+D. "Chỉ cần pha loãng gấp đôi là dùng qua sonde được."</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Khách hàng hỏi về sự khác biệt chính giữa Canxi nano trong Diasure tiểu đường và Canxi thường trong Diasure Veganic. Bạn giải thích điểm nào là quan trọng nhất?
+A. Canxi nano có màu trắng hơn.
+B. Canxi nano có kích thước siêu nhỏ, giúp tăng hấp thu hơn canxi thường và giảm nguy cơ tác dụng phụ như táo bón, sỏi thận.
+C. Canxi thường rẻ tiền hơn.
+D. Không có sự khác biệt nào đáng kể.</t>
+  </si>
+  <si>
+    <t>Chọn câu trả lời đúng nhất. Một khách hàng muốn tìm hiểu về nguồn gốc sữa non trong Diasure tiểu đường để đảm bảo chất lượng. Bạn sẽ cung cấp thông tin nào từ cẩm nang để tạo sự tin tưởng?
+A. Sữa non được lấy từ bò nuôi ở Việt Nam.
+B. Sữa non được nhập khẩu từ tập đoàn hàng đầu Hoa Kỳ, đảm bảo quy trình thu thập có đạo đức, chất lượng kiểm soát nghiêm ngặt (3A: Nông trại A, Bò sữa A, Sữa non A) và truy xuất được nguồn gốc.
+C. Nguồn gốc sữa non không quan trọng bằng các thành phần khác.
+D. Sữa non chỉ là thành phần phụ, không ảnh hưởng nhiều đến chất lượng.</t>
+  </si>
+  <si>
+    <t>C. Hoa Kỳ (Mỹ)</t>
+  </si>
+  <si>
+    <t>B. Inositol</t>
+  </si>
+  <si>
+    <t>C. Đường Isomalt</t>
+  </si>
+  <si>
+    <t>C. Canxi Nano</t>
+  </si>
+  <si>
+    <t>B. Hỗ trợ sức khỏe tim mạch, não bộ và tăng sức đề kháng</t>
+  </si>
+  <si>
+    <t>B. Cải thiện hệ tiêu hóa, hỗ trợ lợi khuẩn và tăng hấp thu canxi</t>
+  </si>
+  <si>
+    <t>C. Hỗn hợp 8 loại hạt dinh dưỡng</t>
+  </si>
+  <si>
+    <t>B. Palatinose Pst-N</t>
+  </si>
+  <si>
+    <t>B. Tăng tính nhạy cảm với Insulin, hạ đường huyết</t>
+  </si>
+  <si>
+    <t>C. Thấp hơn 15%, đặc biệt là đường lactose</t>
+  </si>
+  <si>
+    <t>B. Kích thước phân tử nhỏ hơn, dễ tiêu hóa hơn, chứa 100% đạm quý A2</t>
+  </si>
+  <si>
+    <t>B. Tăng cường chức năng miễn dịch, tăng độ nhạy insulin, hỗ trợ tiêu hóa</t>
+  </si>
+  <si>
+    <t>B. Đức, cải thiện sức khỏe đường ruột, quản lý đường huyết, tăng hấp thu khoáng chất</t>
+  </si>
+  <si>
+    <t>C. FDA, ISO 22000:2018, HACCP, GMP</t>
+  </si>
+  <si>
+    <t>C. 5 muỗng gạt ngang + 200ml nước nóng (45-60 độ C)</t>
+  </si>
+  <si>
+    <t>B. Có thể thay thế bữa phụ hoặc bữa chính, nhưng nên ăn đủ bữa chính để đa dạng dinh dưỡng và hứng thú ăn uống.</t>
+  </si>
+  <si>
+    <t>C. Để duy trì kết quả, bổ sung dinh dưỡng thiếu hụt do ăn kiêng và ngăn ngừa bệnh nặng hơn, phòng biến chứng.</t>
+  </si>
+  <si>
+    <t>C. Uống sữa cách thuốc điều trị khoảng 30 phút - 1 giờ.</t>
+  </si>
+  <si>
+    <t>B. Người bị dị ứng lactose hoặc đạm sữa bò, người có bệnh tim mạch, mỡ máu.</t>
+  </si>
+  <si>
+    <t>B. 415.9 Kcal</t>
+  </si>
+  <si>
+    <t>A. Cung cấp dinh dưỡng thiết yếu., B. Hỗ trợ kiểm soát đường huyết., C. Giảm nguy cơ loãng xương và bệnh tim mạch.</t>
+  </si>
+  <si>
+    <t>B. Canxi nano, C. Vitamin D3, D. Vitamin K1</t>
+  </si>
+  <si>
+    <t>A. Hoàn toàn thuần tự nhiên từ 8 loại hạt., B. Phù hợp với người dị ứng lactose, đạm sữa bò., C. Dễ tiêu hóa hơn, tốt cho người bụng dạ kém.</t>
+  </si>
+  <si>
+    <t>B. Isomalt, C. Palatinose Pst-N, D. Inositol</t>
+  </si>
+  <si>
+    <t>A. Tham gia trao đổi chất, hoạt động hệ thần kinh., B. Ngăn ngừa oxy hóa, hỗ trợ sức khỏe da., C. Duy trì chức năng gan, bảo vệ tim mạch.</t>
+  </si>
+  <si>
+    <t>A. Tăng cường miễn dịch cơ thể và đường ruột., B. Cung cấp kháng thể (IgG, IgA, IgM)., C. Hỗ trợ chức năng tiêu hóa và hấp thụ dinh dưỡng.</t>
+  </si>
+  <si>
+    <t>B. Người dị ứng với thành phần của sữa., C. Người suy gan, suy thận nặng (độ 3, 4) hoặc chưa ổn định., D. Người có bệnh lý đường tiêu hóa nghiêm trọng đang điều trị tích cực (chảy máu dạ dày...).</t>
+  </si>
+  <si>
+    <t>B. Pha sữa loãng hơn một chút so với hướng dẫn., C. Uống thêm nhiều nước trong ngày., D. Ăn thêm nhiều rau xanh, hoa quả.</t>
+  </si>
+  <si>
+    <t>B. Hấp thu chậm, giải phóng năng lượng từ từ., C. Có chỉ số đường huyết (GI) thấp., D. Giảm tình trạng đề kháng Insulin.</t>
+  </si>
+  <si>
+    <t>C. Vitamin A, D. Vitamin C</t>
+  </si>
+  <si>
+    <t>B. nguy cơ</t>
+  </si>
+  <si>
+    <t>C. Crom</t>
+  </si>
+  <si>
+    <t>C. thuần tự nhiên</t>
+  </si>
+  <si>
+    <t>B. chậm</t>
+  </si>
+  <si>
+    <t>C. Canxi</t>
+  </si>
+  <si>
+    <t>B. A2 ß-casein</t>
+  </si>
+  <si>
+    <t>C. Orafti® GR (Inulin)</t>
+  </si>
+  <si>
+    <t>C. vừa phải / thấp</t>
+  </si>
+  <si>
+    <t>C. nghiên cứu</t>
+  </si>
+  <si>
+    <t>B. Sữa non</t>
+  </si>
+  <si>
+    <t>C. Sữa dê Diabetic vì sữa dê dễ tiêu hóa hơn sữa bò, chứa đạm A2, hàm lượng lactose thấp hơn và có bổ sung Orafti® GR tốt cho tiêu hóa.</t>
+  </si>
+  <si>
+    <t>B. Diasure tiểu đường có Omega-3, Omega-6 tốt cho tim mạch nhưng nguồn đạm, béo từ động vật. Diasure Veganic nguồn đạm, béo từ thực vật, tốt cho người muốn hạn chế chất béo động vật và có VTM A, C.</t>
+  </si>
+  <si>
+    <t>B. "Đây là đường Isomalt chiết xuất từ củ cải đường, có chỉ số GI thấp, hấp thu chậm, không làm tăng đường huyết đột ngột như đường mía thông thường và được dùng chuyên biệt cho người tiểu đường."</t>
+  </si>
+  <si>
+    <t>C. "Tiểu đường là bệnh mạn tính, bác nên tiếp tục sử dụng sữa lâu dài như một phần dinh dưỡng hàng ngày để duy trì kết quả, bổ sung dưỡng chất và ngăn ngừa biến chứng."</t>
+  </si>
+  <si>
+    <t>C. Giải thích rằng sữa có năng lượng vừa phải, không gây tăng cân nếu dùng hợp lý. Có thể dùng thay bữa phụ, hoặc nếu uống thêm thì giảm bớt lượng tinh bột trong bữa chính (ví dụ giảm nửa bát cơm), đặc biệt là bữa tối.</t>
+  </si>
+  <si>
+    <t>B. "Hoàn toàn được ạ. Sữa Diasure Veganic là dinh dưỡng bổ sung, an toàn cho người có bệnh tim mạch, huyết áp, mỡ máu. Bác chỉ cần uống cách các thuốc điều trị khoảng 1-2h và tiếp tục theo dõi sức khỏe, không tự ý bỏ thuốc."</t>
+  </si>
+  <si>
+    <t>B. Có thể do pha sữa quá đặc hoặc uống ít nước, ít chất xơ. Khắc phục: Thử pha loãng hơn chút, uống đủ nước trong ngày, ăn nhiều rau xanh.</t>
+  </si>
+  <si>
+    <t>B. "Các loại sữa tiểu đường này phù hợp hơn với đường uống trực tiếp. Người ăn qua sonde cần chế độ dinh dưỡng riêng biệt với áp suất thẩm thấu phù hợp, nên tham khảo ý kiến bác sĩ hoặc chuyên gia dinh dưỡng tại bệnh viện."</t>
+  </si>
+  <si>
+    <t>B. Canxi nano có kích thước siêu nhỏ, giúp tăng hấp thu hơn canxi thường và giảm nguy cơ tác dụng phụ như táo bón, sỏi thận.</t>
+  </si>
+  <si>
+    <t>B. Sữa non được nhập khẩu từ tập đoàn hàng đầu Hoa Kỳ, đảm bảo quy trình thu thập có đạo đức, chất lượng kiểm soát nghiêm ngặt (3A: Nông trại A, Bò sữa A, Sữa non A) và truy xuất được nguồn gốc.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,16 +1109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,21 +1120,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -684,7 +1164,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -718,7 +1198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -753,10 +1232,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,884 +1407,877 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:5">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="30" spans="1:5">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+    <row r="33" spans="1:5">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+    <row r="35" spans="1:5">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:5">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:5">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="43" spans="1:5">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+    <row r="45" spans="1:5">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="47" spans="1:5">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+      <c r="E47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+    <row r="51" spans="1:5">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1816,14 +2287,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1848,16 +2319,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1865,16 +2336,16 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1882,16 +2353,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1899,16 +2370,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1916,16 +2387,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1933,16 +2404,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1950,16 +2421,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1967,16 +2438,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1984,16 +2455,16 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2001,16 +2472,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2018,16 +2489,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2035,16 +2506,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2052,16 +2523,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2069,16 +2540,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2086,16 +2557,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2103,16 +2574,16 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2120,16 +2591,16 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2137,16 +2608,16 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2154,16 +2625,16 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2171,16 +2642,16 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2188,16 +2659,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2205,16 +2676,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2222,16 +2693,16 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2239,16 +2710,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2256,16 +2727,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2273,16 +2744,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2290,16 +2761,16 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2307,16 +2778,16 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2324,16 +2795,16 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2341,16 +2812,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2358,16 +2829,16 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2375,16 +2846,16 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2392,16 +2863,16 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2409,16 +2880,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2426,16 +2897,16 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2443,16 +2914,16 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2460,16 +2931,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2477,16 +2948,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2494,16 +2965,16 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2511,16 +2982,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2528,16 +2999,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2545,16 +3016,16 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2562,16 +3033,16 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2579,16 +3050,16 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="E45" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2596,16 +3067,16 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2613,16 +3084,16 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="E47" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2630,16 +3101,16 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2647,16 +3118,16 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2664,16 +3135,16 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2681,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="E51" t="s">
         <v>110</v>
